--- a/biology/Médecine/Ligament_ilio-lombaire/Ligament_ilio-lombaire.xlsx
+++ b/biology/Médecine/Ligament_ilio-lombaire/Ligament_ilio-lombaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament ilio-lombaire (ou ligament ilio-lombal) est un ligament de la ceinture pelvienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament ilio-lombaire s'insère entre la crête iliaque et les apophyses transverses des deux dernières vertèbres lombaires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament ilio-lombaire s'insère entre la crête iliaque et les apophyses transverses des deux dernières vertèbres lombaires.
 Il est composé de deux faisceaux :
 un faisceau supérieur entre la quatrième vertèbre lombaire et la crête iliaque,
 un faisceau inférieur entre la cinquième vertèbre lombaire et la crête iliaque.
@@ -546,7 +560,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament ilio-lombaire joue un rôle de stabilisation entre la zone lombaire et le sacrum.
 Il joue également un rôle stabilisateur pour l'articulation sacro-iliaque.
@@ -578,7 +594,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains auteurs le considèrent comme un ligament de l'articulation sacro-iliaque.
 La nomenclature anatomique TA2 le considère comme une articulation fibreuse de la ceinture pelvienne (syndesmose).
